--- a/src/winner/list.xlsx
+++ b/src/winner/list.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangpengchuan/Desktop/个人/working/meiji/src/winner/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangpengchuan/Desktop/个人/working/meijiCode/src/winner/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,7 +18,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$A$7</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>选择游乐园</t>
     <rPh sb="0" eb="2">
@@ -51,6 +50,21 @@
     <rPh sb="0" eb="1">
       <t>dian h</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京欢乐谷成人单人门票壹张</t>
+    <rPh sb="0" eb="6">
+      <t>cheng're</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王博</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18801402956‬</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -439,7 +453,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="27.6640625" defaultRowHeight="47" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -460,9 +474,15 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:3" ht="47" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>

--- a/src/winner/list.xlsx
+++ b/src/winner/list.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>选择游乐园</t>
     <rPh sb="0" eb="2">
@@ -65,6 +65,16 @@
   </si>
   <si>
     <t>18801402956‬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辛忠柱</t>
+  </si>
+  <si>
+    <t>时间</t>
+    <rPh sb="0" eb="1">
+      <t>shi jian</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -126,7 +136,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -134,6 +144,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -450,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="27.6640625" defaultRowHeight="47" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -462,7 +475,7 @@
     <col min="2" max="16384" width="27.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -472,8 +485,11 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="47" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -483,31 +499,47 @@
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D2" s="3">
+        <v>43249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2">
+        <v>15600608039</v>
+      </c>
+      <c r="D3" s="3">
+        <v>43250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="47" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" ht="47" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" ht="47" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" ht="47" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:A7"/>

--- a/src/winner/list.xlsx
+++ b/src/winner/list.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>选择游乐园</t>
     <rPh sb="0" eb="2">
@@ -74,6 +74,17 @@
     <t>时间</t>
     <rPh sb="0" eb="1">
       <t>shi jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州烂苹果乐园成人单人门票壹张</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>范雪</t>
+    <rPh sb="0" eb="1">
+      <t>fan xue</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -466,7 +477,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="27.6640625" defaultRowHeight="47" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -518,10 +529,18 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2">
+        <v>18357026909</v>
+      </c>
+      <c r="D4" s="3">
+        <v>43251</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="47" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>

--- a/src/winner/list.xlsx
+++ b/src/winner/list.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>选择游乐园</t>
     <rPh sb="0" eb="2">
@@ -87,6 +87,9 @@
       <t>fan xue</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张智峰</t>
   </si>
 </sst>
 </file>
@@ -477,7 +480,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="27.6640625" defaultRowHeight="47" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -543,10 +546,18 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2">
+        <v>18367126521</v>
+      </c>
+      <c r="D5" s="3">
+        <v>43252</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="47" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>

--- a/src/winner/list.xlsx
+++ b/src/winner/list.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>选择游乐园</t>
     <rPh sb="0" eb="2">
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>张智峰</t>
+  </si>
+  <si>
+    <t>安绍飞</t>
   </si>
 </sst>
 </file>
@@ -480,7 +483,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="27.6640625" defaultRowHeight="47" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -560,10 +563,18 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2">
+        <v>18681560432</v>
+      </c>
+      <c r="D6" s="3">
+        <v>43253</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="47" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>

--- a/src/winner/list.xlsx
+++ b/src/winner/list.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>选择游乐园</t>
     <rPh sb="0" eb="2">
@@ -93,6 +93,16 @@
   </si>
   <si>
     <t>安绍飞</t>
+  </si>
+  <si>
+    <t>向上上</t>
+    <rPh sb="0" eb="1">
+      <t>xiang</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>shang shang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -482,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="27.6640625" defaultRowHeight="47" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -577,10 +587,18 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2">
+        <v>18948728641</v>
+      </c>
+      <c r="D7" s="3">
+        <v>43254</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:A7"/>

--- a/src/winner/list.xlsx
+++ b/src/winner/list.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>选择游乐园</t>
     <rPh sb="0" eb="2">
@@ -101,6 +101,20 @@
     </rPh>
     <rPh sb="1" eb="2">
       <t>shang shang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳欢乐谷成人单人门票壹张</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈辰</t>
+    <rPh sb="0" eb="1">
+      <t>chen</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>chen</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -490,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="27.6640625" defaultRowHeight="47" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -600,6 +614,20 @@
         <v>43254</v>
       </c>
     </row>
+    <row r="8" spans="1:4" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2">
+        <v>13620951547</v>
+      </c>
+      <c r="D8" s="3">
+        <v>43255</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:A7"/>
   <phoneticPr fontId="1" type="noConversion"/>
